--- a/db/AiCity-71-番茄村拷貝.xlsx
+++ b/db/AiCity-71-番茄村拷貝.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BA266-4A13-2841-86F1-460A37785F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C788E89-D5E8-AC43-B9A2-E5F6AF6BE90D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
+    <workbookView xWindow="21540" yWindow="580" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +169,6 @@
     <t>037</t>
   </si>
   <si>
-    <t>美式咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>番茄村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早餐系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起司蛋/ 陽光加州蔬果/ ＊黑胡椒豬排/ 勇士牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起司蛋: 45,  陽光加州蔬果:49, ＊黑胡椒豬排: 55, 勇士牛肉: 65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,18 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起司蛋/ *陽光加州蔬果/ 洋蔥鮪魚/ ＊黑胡椒豬排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果醬番茄吐司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>薄片 / 厚片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起司蛋: 45, *陽光加州蔬果: 49, 洋蔥鮪魚: 49, ＊黑胡椒豬排: 55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>珍珠堡/ 麥香雞堡/ 黑胡椒豬排堡/ 凱薩鮮脆雞腿堡/ 紐約客牛肉堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現烤吐司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火腿蛋/ ＊培根蛋/ 豬排蛋/ ＊雙喜總匯蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火腿蛋: 35, ＊培根蛋: 40, 豬排蛋: 50, ＊雙喜總匯蛋: 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>＊起司歐姆蛋/  鮪魚歐姆蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>＊起司歐姆蛋: 40,  鮪魚歐姆蛋: 45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,14 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>壽喜燒牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊豬排潛艇堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>＊豬排潛艇堡: 65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原味/ 玉米/ 起司/ ＊蔬菜/ 鮪魚/ 培根/ ＊豬排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原味:25, 玉米:35, 起司:35, ＊蔬菜:35, 鮪魚:40, 培根:40, ＊豬排:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,66 +257,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豬排總匯盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快樂小熊盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*豬排丹麥吐司盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美式鬆餅盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培根丹麥總匯盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑胡椒肉醬麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊義式番茄麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鍋燒意麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原味意麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙茶意麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鐵板義大利麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,70 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紅醬蘑菇蛋包飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白醬哈利燉飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起司白醬培根義大利麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅醬雞肉義大利麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 40, 大 45 (冰/熱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 50, 大 55 (冰/熱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊拿鐵咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小 20, 中 25, 大 30 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊養生薏仁漿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非基因改造豆漿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鮮榨番茄汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜蜂番茄汁: 75 (冰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇家咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,67 +281,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿薩姆紅茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 25, 大 30 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊翠玉四季春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 30, 大 35 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 35, 大 40 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊阿薩姆奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜蜂百香綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 45, 大 50 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翡翠檸檬綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊黃金香橙綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊翡翠香橙綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 50, 大 60 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 40, 大 50 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 55, 大 65 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金桔翡翠檸檬果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃金香橙果汁</t>
+    <t>豬排總匯盤餐: 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂小熊盤餐: 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*豬排丹麥吐司盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式鬆餅盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根丹麥總匯盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒肉醬麵: 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊義式番茄麵: 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味意麵: 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙茶意麵: 69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬蘑菇蛋包飯: 129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白醬哈利燉飯: 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起司白醬培根義大利麵: 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬雞肉義大利麵: 149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式咖啡: 中 40, 大 45 (冰/熱）</t>
+  </si>
+  <si>
+    <t>＊拿鐵咖啡: 中 50, 大 55 (冰/熱）</t>
+  </si>
+  <si>
+    <t>＊養生薏仁漿: 小 20, 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>非基因改造豆漿: 小 20, 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>鮮榨番茄汁: 蜜蜂番茄汁: 75 (冰）</t>
+  </si>
+  <si>
+    <t>阿薩姆紅茶: 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>＊翠玉四季春: 中 30, 大 35 (冰)</t>
+  </si>
+  <si>
+    <t>＊阿薩姆奶茶: 中 35, 大 40 (冰/熱)</t>
+  </si>
+  <si>
+    <t>蜜蜂百香綠茶: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>翡翠檸檬綠茶: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>＊黃金香橙綠茶: 中 50, 大 60 (冰)</t>
+  </si>
+  <si>
+    <t>＊翡翠香橙綠茶: 中 40, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>金桔翡翠檸檬果汁: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>黃金香橙果汁: 中 55, 大 65 (冰)</t>
+  </si>
+  <si>
+    <t>飲料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,14 +412,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,7 +444,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,23 +762,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67" style="2" customWidth="1"/>
+    <col min="5" max="5" width="67" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -920,678 +787,646 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="2" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
